--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Rhoades_et_al_2019/Rhoades_et_al_2019.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Rhoades_et_al_2019/Rhoades_et_al_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Rhoades_et_al_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026955A0-7132-4E49-8570-8823798BC2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F46BAE-3DC0-974C-AA36-1D596928F168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="760" windowWidth="27240" windowHeight="16420" xr2:uid="{538AD7EB-160E-9641-91F6-A7D826942086}"/>
+    <workbookView xWindow="840" yWindow="760" windowWidth="27240" windowHeight="16420" xr2:uid="{538AD7EB-160E-9641-91F6-A7D826942086}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="44">
   <si>
     <t>Study_ID</t>
   </si>
@@ -110,13 +110,64 @@
     <t>Dfb</t>
   </si>
   <si>
-    <t xml:space="preserve">I don’t think we can add this paper because it doesn't quite have what we are looking for. Fig. 4 has data from the High Park fire from 2012 but no NO3 or DOC data. Figure 5 has nitrate-N and DOC data from the Hayman fire from 2002 but they are seasonal means (rising limb/falling limb and baseflow) so I dont think we can use this. </t>
-  </si>
-  <si>
     <t>Rhoades et al. 2019</t>
   </si>
   <si>
     <t>10.1007/s10021-018-0293-6</t>
+  </si>
+  <si>
+    <t>Brush</t>
+  </si>
+  <si>
+    <t>Fourmile</t>
+  </si>
+  <si>
+    <t>Cabin</t>
+  </si>
+  <si>
+    <t>Wigwam</t>
+  </si>
+  <si>
+    <t>Fern</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Figire 3</t>
+  </si>
+  <si>
+    <t>Unburn</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Figure 3 reports in total export so had to do a calculation to turn it into concentration. See Hampton et al. 2023 for the conversion. Means were derived from 2015 and 2016 monthly samples for two catchments per burn severity class</t>
+  </si>
+  <si>
+    <t>mg_L</t>
+  </si>
+  <si>
+    <t>mg_NO3_N_L</t>
+  </si>
+  <si>
+    <t>Site_1</t>
+  </si>
+  <si>
+    <t>Site_2</t>
+  </si>
+  <si>
+    <t>Site_3</t>
+  </si>
+  <si>
+    <t>Site_4</t>
+  </si>
+  <si>
+    <t>Control</t>
   </si>
 </sst>
 </file>
@@ -138,18 +189,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,11 +211,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,356 +534,3507 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="2"/>
+    <col min="12" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="5">
-        <v>39.177683000000002</v>
-      </c>
-      <c r="E2" s="5">
-        <v>-105.26552</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="V2" t="s">
-        <v>24</v>
+      <c r="I2" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.1701269E-2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1.0566120999999999E-2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I3" s="3"/>
-      <c r="K3" s="4"/>
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3">
+        <v>42036</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.9265013000000001E-2</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2.2666183999999999E-2</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I4" s="3"/>
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="3">
+        <v>42064</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3.5509983000000002E-2</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.6855292000000001E-2</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1">
+        <v>13</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.71413E-2</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2.4487579999999998E-2</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I6" s="3"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="3">
+        <v>42125</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1">
+        <v>13</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3.4062428999999998E-2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2.5889684E-2</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I7" s="3"/>
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="3">
+        <v>42156</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="1">
+        <v>13</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.3232024E-2</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1.0651416E-2</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I8" s="3"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="3">
+        <v>42186</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="1">
+        <v>13</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3.0979241000000001E-2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1.7169481E-2</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="3">
+        <v>42217</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="1">
+        <v>13</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.9461987E-2</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1.6821104E-2</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I10" s="3"/>
-      <c r="K10" s="4"/>
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3">
+        <v>42248</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="1">
+        <v>13</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="1">
+        <v>9.5622480000000006E-3</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1.0139983999999999E-2</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I11" s="3"/>
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3">
+        <v>42278</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="1">
+        <v>13</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.8719254000000001E-2</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1.4893399999999999E-2</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I12" s="3"/>
-      <c r="K12" s="4"/>
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3">
+        <v>42309</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="1">
+        <v>13</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2.9196603000000002E-2</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>2.6444675000000001E-2</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I13" s="3"/>
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="3">
+        <v>42339</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="1">
+        <v>13</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2.1499371999999999E-2</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2.1088908999999999E-2</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I14" s="3"/>
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="1">
+        <v>13</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2.7648318000000002E-2</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1.0679229E-2</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I15" s="3"/>
-      <c r="K15" s="4"/>
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="3">
+        <v>42036</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="1">
+        <v>13</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="1">
+        <v>9.9441091999999995E-2</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1.4174249E-2</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I17" s="3"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I18" s="3"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I20" s="3"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I21" s="3"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I23" s="3"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I24" s="3"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I25" s="3"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I27" s="3"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="3">
+        <v>42064</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="1">
+        <v>13</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.12396992</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2.1286416999999998E-2</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="1">
+        <v>13</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.46929695900000001</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>5.5760223999999997E-2</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="3">
+        <v>42125</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="1">
+        <v>13</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.38112958299999999</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>4.2839126999999998E-2</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="3">
+        <v>42156</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="1">
+        <v>13</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="1">
+        <v>9.8905438999999998E-2</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1.1751388999999999E-2</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="3">
+        <v>42186</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="1">
+        <v>13</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.12253183600000001</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1.1820669000000001E-2</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="3">
+        <v>42217</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="1">
+        <v>13</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="1">
+        <v>7.3746381E-2</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1.0639730999999999E-2</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="3">
+        <v>42248</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="1">
+        <v>13</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3.3386832999999998E-2</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>3.3718110000000002E-3</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="3">
+        <v>42278</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="1">
+        <v>13</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="1">
+        <v>7.6430155E-2</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>3.2500430000000002E-3</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="3">
+        <v>42309</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="1">
+        <v>13</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="1">
+        <v>8.493887E-2</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>2.1211464999999999E-2</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="3">
+        <v>42339</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="1">
+        <v>13</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="1">
+        <v>6.0310785999999998E-2</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>3.0319249E-2</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="1">
+        <v>13</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.58381731100000001</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.16767744600000001</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="3">
+        <v>42036</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="1">
+        <v>13</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="1">
+        <v>4.1947203569999996</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.30653532999999999</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="3">
+        <v>42064</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="1">
+        <v>13</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1.036892497</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>6.9568301999999999E-2</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="1">
+        <v>13</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1.0904905199999999</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>3.5241940999999999E-2</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="3">
+        <v>42125</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="1">
+        <v>13</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="1">
+        <v>2.0873057149999998</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>4.2771261999999997E-2</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="3">
+        <v>42156</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="1">
+        <v>13</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.255247852</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>4.9442469999999997E-3</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="3">
+        <v>42186</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="1">
+        <v>13</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.83404262600000001</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>6.3045050000000002E-3</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="3">
+        <v>42217</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" s="1">
+        <v>13</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.28152451699999997</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1.6783771999999999E-2</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="3">
+        <v>42248</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="1">
+        <v>13</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.14288231600000001</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1.8430194E-2</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="3">
+        <v>42278</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="1">
+        <v>13</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.192153239</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>2.0594106000000001E-2</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="3">
+        <v>42309</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="1">
+        <v>13</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.67090933100000005</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>6.9568301999999999E-2</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="3">
+        <v>42339</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" s="1">
+        <v>13</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.65256926000000004</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>5.9233940000000002E-3</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="1">
+        <v>13</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.34039303500000001</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0.32085248599999999</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="3">
+        <v>42036</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="1">
+        <v>13</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1.0603920449999999</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0.20482995400000001</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="3">
+        <v>42064</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" s="1">
+        <v>13</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0.627675129</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0.12678061800000001</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" s="1">
+        <v>13</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1.33548818</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>6.2872487000000005E-2</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="3">
+        <v>42125</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" s="1">
+        <v>13</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" s="1">
+        <v>5.4629163219999999</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>9.4370267999999993E-2</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="3">
+        <v>42156</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43" s="1">
+        <v>13</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0.72914719900000002</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>1.0114844E-2</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="3">
+        <v>42186</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" s="1">
+        <v>13</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1.0370077259999999</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>1.9620139000000002E-2</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="3">
+        <v>42217</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K45" s="1">
+        <v>13</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0.28825417800000003</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>4.1766512999999998E-2</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="3">
+        <v>42248</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" s="1">
+        <v>13</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.16805936099999999</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>4.4546982999999998E-2</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="3">
+        <v>42278</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K47" s="1">
+        <v>13</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1.505090815</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>6.2358373000000002E-2</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="3">
+        <v>42309</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K48" s="1">
+        <v>13</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1.2083459489999999</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0.209188025</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="3">
+        <v>42339</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K49" s="1">
+        <v>13</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1.074357161</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0.27202712000000001</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="1">
+        <v>13</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0.548323687</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>2.9534105000000001E-2</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" s="3">
+        <v>42036</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" s="1">
+        <v>13</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0.78230280799999996</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>4.7992905000000002E-2</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" s="3">
+        <v>42066</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K52" s="1">
+        <v>13</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0.89990368200000004</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>2.1784014000000001E-2</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K53" s="1">
+        <v>13</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M53" s="1">
+        <v>1.036271465</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>1.4810609000000001E-2</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" s="3">
+        <v>42125</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54" s="1">
+        <v>13</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0.64693911400000004</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>1.4349670000000001E-3</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E55" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" s="3">
+        <v>42156</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K55" s="1">
+        <v>13</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M55" s="1">
+        <v>5.2110907999999997E-2</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>8.9895399999999999E-4</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" s="3">
+        <v>42186</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K56" s="1">
+        <v>13</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M56" s="1">
+        <v>6.0897743999999997E-2</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>1.5944959999999999E-3</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E57" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" s="3">
+        <v>42217</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K57" s="1">
+        <v>13</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.101616556</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>3.2620499999999998E-3</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E58" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I58" s="3">
+        <v>42248</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K58" s="1">
+        <v>13</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.109410381</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>3.6448869999999999E-3</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E59" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I59" s="3">
+        <v>42278</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59" s="1">
+        <v>13</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0.160246532</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>4.4644580000000001E-3</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" s="3">
+        <v>42309</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K60" s="1">
+        <v>13</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0.25954458800000002</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>5.4460029999999996E-3</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" s="3">
+        <v>42339</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K61" s="1">
+        <v>13</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0.38568080700000001</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>2.2257579E-2</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K62" s="1">
+        <v>13</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0.76418884399999998</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>5.4463431E-2</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" s="3">
+        <v>42035</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" s="1">
+        <v>13</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0.83998723200000003</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>5.9002029999999997E-2</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" s="3">
+        <v>42064</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K64" s="1">
+        <v>13</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0.36053481799999998</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>3.0128696E-2</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E65" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K65" s="1">
+        <v>13</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M65" s="1">
+        <v>1.0360304520000001</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>2.8918625999999999E-2</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E66" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" s="3">
+        <v>42125</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K66" s="1">
+        <v>13</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M66" s="1">
+        <v>1.2200322240000001</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>1.0584807E-2</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E67" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" s="3">
+        <v>42156</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K67" s="1">
+        <v>13</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M67" s="1">
+        <v>9.9858680000000005E-2</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>1.6577479999999999E-3</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E68" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" s="3">
+        <v>42186</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K68" s="1">
+        <v>13</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0.26671883899999999</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>4.2005539999999996E-3</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E69" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" s="3">
+        <v>42217</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K69" s="1">
+        <v>13</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0.16007822799999999</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>4.0103329999999996E-3</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E70" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I70" s="3">
+        <v>42248</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K70" s="1">
+        <v>13</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0.178865148</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>5.0411149999999997E-3</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E71" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" s="3">
+        <v>42278</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K71" s="1">
+        <v>13</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0.29553926899999999</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>5.4885610000000003E-3</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E72" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" s="3">
+        <v>42309</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K72" s="1">
+        <v>13</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0.34188938600000002</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>1.5064353000000001E-2</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="1">
+        <v>39.177683000000002</v>
+      </c>
+      <c r="E73" s="1">
+        <v>-105.26552</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" s="3">
+        <v>42339</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K73" s="1">
+        <v>13</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0.711228584</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>3.0783677999999998E-2</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="3"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="3"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.2">
@@ -1265,11 +4461,11 @@
     </row>
     <row r="218" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I218" s="3"/>
-      <c r="Q218" s="2"/>
+      <c r="Q218" s="5"/>
     </row>
     <row r="219" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I219" s="3"/>
-      <c r="Q219" s="2"/>
+      <c r="Q219" s="5"/>
     </row>
     <row r="220" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I220" s="3"/>
